--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.544047297731126</v>
+        <v>0.5271936044704619</v>
       </c>
       <c r="C2">
-        <v>0.5520118787769169</v>
+        <v>0.5352467862865621</v>
       </c>
       <c r="D2">
-        <v>0.4161555526239861</v>
+        <v>0.3759612643965448</v>
       </c>
       <c r="E2">
-        <v>0.6451011956460677</v>
+        <v>0.6131568024547593</v>
       </c>
       <c r="F2">
-        <v>0.3588196280695601</v>
+        <v>0.3249135209474168</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3323214535345447</v>
+        <v>0.3608722674935116</v>
       </c>
       <c r="C3">
-        <v>0.3471491748320992</v>
+        <v>0.4023274030500674</v>
       </c>
       <c r="D3">
-        <v>0.171833097400013</v>
+        <v>0.2193608715941454</v>
       </c>
       <c r="E3">
-        <v>0.4145275592768387</v>
+        <v>0.4683597672667298</v>
       </c>
       <c r="F3">
-        <v>0.2571347573803706</v>
+        <v>0.310740649621604</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2658657847736177</v>
+        <v>0.2850699742386379</v>
       </c>
       <c r="C4">
-        <v>0.3120893012315514</v>
+        <v>0.3326698397266342</v>
       </c>
       <c r="D4">
-        <v>0.1488418498313651</v>
+        <v>0.1632228408311082</v>
       </c>
       <c r="E4">
-        <v>0.3858002719430937</v>
+        <v>0.4040084662864236</v>
       </c>
       <c r="F4">
-        <v>0.2909816784230805</v>
+        <v>0.2990128315009373</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3912245664449679</v>
+        <v>0.437101989811909</v>
       </c>
       <c r="C5">
-        <v>0.4218923612313186</v>
+        <v>0.4532318499641988</v>
       </c>
       <c r="D5">
-        <v>0.2401193300839004</v>
+        <v>0.2559434172938412</v>
       </c>
       <c r="E5">
-        <v>0.4900197241784257</v>
+        <v>0.5059085068407539</v>
       </c>
       <c r="F5">
-        <v>0.3081841280094164</v>
+        <v>0.2671587441502564</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4189114456561581</v>
+        <v>0.3896036158490621</v>
       </c>
       <c r="C6">
-        <v>0.4471377096428504</v>
+        <v>0.4137899396662769</v>
       </c>
       <c r="D6">
-        <v>0.2554094045634564</v>
+        <v>0.213010691573719</v>
       </c>
       <c r="E6">
-        <v>0.5053804552646021</v>
+        <v>0.4615308132440552</v>
       </c>
       <c r="F6">
-        <v>0.2965044110766253</v>
+        <v>0.2608100928752895</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3623555131786818</v>
+        <v>0.3372085974095211</v>
       </c>
       <c r="C7">
-        <v>0.3958820287295867</v>
+        <v>0.3720251510852938</v>
       </c>
       <c r="D7">
-        <v>0.197457793314669</v>
+        <v>0.1694528389792911</v>
       </c>
       <c r="E7">
-        <v>0.4443622320974961</v>
+        <v>0.4116464975914299</v>
       </c>
       <c r="F7">
-        <v>0.271121693430343</v>
+        <v>0.2504218459199277</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.356182384604201</v>
+        <v>0.3687366187234252</v>
       </c>
       <c r="C8">
-        <v>0.3864723693532894</v>
+        <v>0.3981931578693139</v>
       </c>
       <c r="D8">
-        <v>0.1809534852127003</v>
+        <v>0.1958236157540623</v>
       </c>
       <c r="E8">
-        <v>0.4253862776497384</v>
+        <v>0.4425196218859253</v>
       </c>
       <c r="F8">
-        <v>0.2466749751680558</v>
+        <v>0.2615490596241174</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3694669697261536</v>
+        <v>0.3640834566367565</v>
       </c>
       <c r="C9">
-        <v>0.3995817503120815</v>
+        <v>0.3961645473499545</v>
       </c>
       <c r="D9">
-        <v>0.1961884184341418</v>
+        <v>0.1981723784143557</v>
       </c>
       <c r="E9">
-        <v>0.4429316182371064</v>
+        <v>0.4451655629250265</v>
       </c>
       <c r="F9">
-        <v>0.2611678753281997</v>
+        <v>0.2766795092775837</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3583150241653129</v>
+        <v>0.3225455632229594</v>
       </c>
       <c r="C10">
-        <v>0.3939248673888729</v>
+        <v>0.3512104856557821</v>
       </c>
       <c r="D10">
-        <v>0.1944778797009319</v>
+        <v>0.1570729010663444</v>
       </c>
       <c r="E10">
-        <v>0.4409964622317643</v>
+        <v>0.3963242372935882</v>
       </c>
       <c r="F10">
-        <v>0.277674138187313</v>
+        <v>0.2522790376821546</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3250039527724223</v>
+        <v>0.3733140426150657</v>
       </c>
       <c r="C11">
-        <v>0.3520830062954648</v>
+        <v>0.3962272652827047</v>
       </c>
       <c r="D11">
-        <v>0.1591455960645969</v>
+        <v>0.198344628268327</v>
       </c>
       <c r="E11">
-        <v>0.3989305654679732</v>
+        <v>0.4453589880852603</v>
       </c>
       <c r="F11">
-        <v>0.25341987312813</v>
+        <v>0.2715263657886741</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AR2_50_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5271936044704619</v>
+        <v>0.544047297731126</v>
       </c>
       <c r="C2">
-        <v>0.5352467862865621</v>
+        <v>0.5520118787769169</v>
       </c>
       <c r="D2">
-        <v>0.3759612643965448</v>
+        <v>0.4161555526239861</v>
       </c>
       <c r="E2">
-        <v>0.6131568024547593</v>
+        <v>0.6451011956460677</v>
       </c>
       <c r="F2">
-        <v>0.3249135209474168</v>
+        <v>0.3588196280695601</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3608722674935116</v>
+        <v>0.3323214535345447</v>
       </c>
       <c r="C3">
-        <v>0.4023274030500674</v>
+        <v>0.3471491748320992</v>
       </c>
       <c r="D3">
-        <v>0.2193608715941454</v>
+        <v>0.171833097400013</v>
       </c>
       <c r="E3">
-        <v>0.4683597672667298</v>
+        <v>0.4145275592768387</v>
       </c>
       <c r="F3">
-        <v>0.310740649621604</v>
+        <v>0.2571347573803706</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2850699742386379</v>
+        <v>0.2658657847736177</v>
       </c>
       <c r="C4">
-        <v>0.3326698397266342</v>
+        <v>0.3120893012315514</v>
       </c>
       <c r="D4">
-        <v>0.1632228408311082</v>
+        <v>0.1488418498313651</v>
       </c>
       <c r="E4">
-        <v>0.4040084662864236</v>
+        <v>0.3858002719430937</v>
       </c>
       <c r="F4">
-        <v>0.2990128315009373</v>
+        <v>0.2909816784230805</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.437101989811909</v>
+        <v>0.3912245664449679</v>
       </c>
       <c r="C5">
-        <v>0.4532318499641988</v>
+        <v>0.4218923612313186</v>
       </c>
       <c r="D5">
-        <v>0.2559434172938412</v>
+        <v>0.2401193300839004</v>
       </c>
       <c r="E5">
-        <v>0.5059085068407539</v>
+        <v>0.4900197241784257</v>
       </c>
       <c r="F5">
-        <v>0.2671587441502564</v>
+        <v>0.3081841280094164</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3896036158490621</v>
+        <v>0.4189114456561581</v>
       </c>
       <c r="C6">
-        <v>0.4137899396662769</v>
+        <v>0.4471377096428504</v>
       </c>
       <c r="D6">
-        <v>0.213010691573719</v>
+        <v>0.2554094045634564</v>
       </c>
       <c r="E6">
-        <v>0.4615308132440552</v>
+        <v>0.5053804552646021</v>
       </c>
       <c r="F6">
-        <v>0.2608100928752895</v>
+        <v>0.2965044110766253</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3372085974095211</v>
+        <v>0.3623555131786818</v>
       </c>
       <c r="C7">
-        <v>0.3720251510852938</v>
+        <v>0.3958820287295867</v>
       </c>
       <c r="D7">
-        <v>0.1694528389792911</v>
+        <v>0.197457793314669</v>
       </c>
       <c r="E7">
-        <v>0.4116464975914299</v>
+        <v>0.4443622320974961</v>
       </c>
       <c r="F7">
-        <v>0.2504218459199277</v>
+        <v>0.271121693430343</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3687366187234252</v>
+        <v>0.356182384604201</v>
       </c>
       <c r="C8">
-        <v>0.3981931578693139</v>
+        <v>0.3864723693532894</v>
       </c>
       <c r="D8">
-        <v>0.1958236157540623</v>
+        <v>0.1809534852127003</v>
       </c>
       <c r="E8">
-        <v>0.4425196218859253</v>
+        <v>0.4253862776497384</v>
       </c>
       <c r="F8">
-        <v>0.2615490596241174</v>
+        <v>0.2466749751680558</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3640834566367565</v>
+        <v>0.3694669697261536</v>
       </c>
       <c r="C9">
-        <v>0.3961645473499545</v>
+        <v>0.3995817503120815</v>
       </c>
       <c r="D9">
-        <v>0.1981723784143557</v>
+        <v>0.1961884184341418</v>
       </c>
       <c r="E9">
-        <v>0.4451655629250265</v>
+        <v>0.4429316182371064</v>
       </c>
       <c r="F9">
-        <v>0.2766795092775837</v>
+        <v>0.2611678753281997</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3225455632229594</v>
+        <v>0.3583150241653129</v>
       </c>
       <c r="C10">
-        <v>0.3512104856557821</v>
+        <v>0.3939248673888729</v>
       </c>
       <c r="D10">
-        <v>0.1570729010663444</v>
+        <v>0.1944778797009319</v>
       </c>
       <c r="E10">
-        <v>0.3963242372935882</v>
+        <v>0.4409964622317643</v>
       </c>
       <c r="F10">
-        <v>0.2522790376821546</v>
+        <v>0.277674138187313</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3733140426150657</v>
+        <v>0.3250039527724223</v>
       </c>
       <c r="C11">
-        <v>0.3962272652827047</v>
+        <v>0.3520830062954648</v>
       </c>
       <c r="D11">
-        <v>0.198344628268327</v>
+        <v>0.1591455960645969</v>
       </c>
       <c r="E11">
-        <v>0.4453589880852603</v>
+        <v>0.3989305654679732</v>
       </c>
       <c r="F11">
-        <v>0.2715263657886741</v>
+        <v>0.25341987312813</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
